--- a/Code/Results/Cases/Case_4_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.575385753247758</v>
+        <v>1.352688459262481</v>
       </c>
       <c r="C2">
-        <v>0.4016337237152356</v>
+        <v>0.2438158961542172</v>
       </c>
       <c r="D2">
-        <v>0.2394766442295975</v>
+        <v>0.5228266803324146</v>
       </c>
       <c r="E2">
-        <v>0.06283487327639925</v>
+        <v>0.1829047581761003</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4971953952189239</v>
+        <v>1.032520994063276</v>
       </c>
       <c r="H2">
-        <v>0.4018399193418389</v>
+        <v>1.057146006784222</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05620275909257444</v>
+        <v>0.08816575100385293</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2359649524938163</v>
+        <v>0.3668636860179362</v>
       </c>
       <c r="M2">
-        <v>0.4726569657274879</v>
+        <v>0.3458638963896732</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.842347024736029</v>
+        <v>4.237916805190395</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.241127146701103</v>
+        <v>1.252488878539054</v>
       </c>
       <c r="C3">
-        <v>0.3704768501050353</v>
+        <v>0.2332425560761209</v>
       </c>
       <c r="D3">
-        <v>0.231073153934986</v>
+        <v>0.524071164148836</v>
       </c>
       <c r="E3">
-        <v>0.06495219269168917</v>
+        <v>0.184498590239718</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4883452061078373</v>
+        <v>1.040758594272347</v>
       </c>
       <c r="H3">
-        <v>0.4054767420584113</v>
+        <v>1.06613384883002</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05495972816670402</v>
+        <v>0.08781546449406008</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2154158427953092</v>
+        <v>0.3627348923325329</v>
       </c>
       <c r="M3">
-        <v>0.4136781485820507</v>
+        <v>0.329157898387308</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.830730290186011</v>
+        <v>4.273857945568153</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.03633486727631</v>
+        <v>1.191100278037538</v>
       </c>
       <c r="C4">
-        <v>0.351389076868216</v>
+        <v>0.2267397842876591</v>
       </c>
       <c r="D4">
-        <v>0.2262626670567727</v>
+        <v>0.5250621559068662</v>
       </c>
       <c r="E4">
-        <v>0.06633908522901599</v>
+        <v>0.1855388112822123</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4843004804761222</v>
+        <v>1.046515457162741</v>
       </c>
       <c r="H4">
-        <v>0.4085381341931722</v>
+        <v>1.072152772717168</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0542090402638884</v>
+        <v>0.0876074842823229</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2029745450891198</v>
+        <v>0.3603191279266298</v>
       </c>
       <c r="M4">
-        <v>0.3776068770335499</v>
+        <v>0.3189734253100625</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.828264983332005</v>
+        <v>4.298443277077595</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.952961861400468</v>
+        <v>1.166119396706051</v>
       </c>
       <c r="C5">
-        <v>0.3436190497520073</v>
+        <v>0.2240873777530226</v>
       </c>
       <c r="D5">
-        <v>0.2243866967638581</v>
+        <v>0.5255231236420173</v>
       </c>
       <c r="E5">
-        <v>0.06692572603513458</v>
+        <v>0.1859782185124965</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4829847338587641</v>
+        <v>1.049037034540767</v>
       </c>
       <c r="H5">
-        <v>0.4099864631623689</v>
+        <v>1.074731393870479</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05390617950626009</v>
+        <v>0.0875245328988612</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1979458945705233</v>
+        <v>0.3593648214612628</v>
       </c>
       <c r="M5">
-        <v>0.362937421486464</v>
+        <v>0.3148418501362329</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.828382548193289</v>
+        <v>4.309094774248919</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.939121917494447</v>
+        <v>1.16197353278119</v>
       </c>
       <c r="C6">
-        <v>0.3423292848667501</v>
+        <v>0.2236468046298228</v>
       </c>
       <c r="D6">
-        <v>0.2240801885798192</v>
+        <v>0.5256031199210867</v>
       </c>
       <c r="E6">
-        <v>0.06702442360724081</v>
+        <v>0.1860521189788464</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4827858612511733</v>
+        <v>1.049466342612234</v>
       </c>
       <c r="H6">
-        <v>0.4102388715277385</v>
+        <v>1.075167174902106</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05385607114220292</v>
+        <v>0.0875108682566399</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.197113300786576</v>
+        <v>0.359208183653692</v>
       </c>
       <c r="M6">
-        <v>0.3605032111702187</v>
+        <v>0.3141569424729056</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.828468391277312</v>
+        <v>4.310901658634975</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.035210178112379</v>
+        <v>1.190763231264157</v>
       </c>
       <c r="C7">
-        <v>0.3512842565302492</v>
+        <v>0.226704022736044</v>
       </c>
       <c r="D7">
-        <v>0.2262370300542074</v>
+        <v>0.525068141250685</v>
       </c>
       <c r="E7">
-        <v>0.06634691041217256</v>
+        <v>0.1855446744630909</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4842814111826854</v>
+        <v>1.046548753198515</v>
       </c>
       <c r="H7">
-        <v>0.408556863539161</v>
+        <v>1.072187039242998</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05420494355429994</v>
+        <v>0.08760635825001373</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2029065636027383</v>
+        <v>0.3603061356184298</v>
       </c>
       <c r="M7">
-        <v>0.3774089260664155</v>
+        <v>0.3189176294013549</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.828262091260058</v>
+        <v>4.298584365120817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.46002244505155</v>
+        <v>1.318112737704212</v>
       </c>
       <c r="C8">
-        <v>0.3908805071698964</v>
+        <v>0.2401725544815747</v>
       </c>
       <c r="D8">
-        <v>0.2365044688966123</v>
+        <v>0.523208738660955</v>
       </c>
       <c r="E8">
-        <v>0.06354667308456818</v>
+        <v>0.1834415372423939</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4938450906712433</v>
+        <v>1.035216164606965</v>
       </c>
       <c r="H8">
-        <v>0.4029173275346096</v>
+        <v>1.060141192430336</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05577149510761359</v>
+        <v>0.08804350957399976</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2288412614540363</v>
+        <v>0.365415386700235</v>
       </c>
       <c r="M8">
-        <v>0.4522879742723447</v>
+        <v>0.3400886775295646</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.837341067071776</v>
+        <v>4.249786701366844</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.298096467304504</v>
+        <v>1.568849586172973</v>
       </c>
       <c r="C9">
-        <v>0.4689854444339687</v>
+        <v>0.2664912944557898</v>
       </c>
       <c r="D9">
-        <v>0.2595777299546427</v>
+        <v>0.5213594073881467</v>
       </c>
       <c r="E9">
-        <v>0.058761814789972</v>
+        <v>0.1798052137390833</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5244275340520375</v>
+        <v>1.01854590073188</v>
       </c>
       <c r="H9">
-        <v>0.3987895048048529</v>
+        <v>1.040487615229083</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05894822332399841</v>
+        <v>0.08895636567446985</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2812399956564349</v>
+        <v>0.3763765405256976</v>
       </c>
       <c r="M9">
-        <v>0.6005399631318156</v>
+        <v>0.3821737939136085</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.894635766694222</v>
+        <v>4.17408018923814</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.919182099396096</v>
+        <v>1.753615635340793</v>
       </c>
       <c r="C10">
-        <v>0.526831495145359</v>
+        <v>0.285762055144346</v>
       </c>
       <c r="D10">
-        <v>0.2785696370146411</v>
+        <v>0.5210924540385378</v>
       </c>
       <c r="E10">
-        <v>0.05570214268863083</v>
+        <v>0.177429829473045</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.555297138942791</v>
+        <v>1.009694063873212</v>
       </c>
       <c r="H10">
-        <v>0.4005125078855372</v>
+        <v>1.028465085958928</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06135425649048187</v>
+        <v>0.08966008125729985</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3208955877420294</v>
+        <v>0.3849985087501011</v>
       </c>
       <c r="M10">
-        <v>0.7107627004850414</v>
+        <v>0.4134289469066061</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.964439064694915</v>
+        <v>4.130660683796833</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.203449018289803</v>
+        <v>1.837777888375683</v>
       </c>
       <c r="C11">
-        <v>0.5532926757297503</v>
+        <v>0.2945128426402732</v>
       </c>
       <c r="D11">
-        <v>0.2877116769858645</v>
+        <v>0.5212073263998604</v>
       </c>
       <c r="E11">
-        <v>0.05441511199453863</v>
+        <v>0.1764132657848041</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.5714490428450745</v>
+        <v>1.006406830602089</v>
       </c>
       <c r="H11">
-        <v>0.4024558486399172</v>
+        <v>1.02352010522624</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06246652462718316</v>
+        <v>0.08998722077528143</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3392401824747395</v>
+        <v>0.3890433133595934</v>
       </c>
       <c r="M11">
-        <v>0.7612951293774159</v>
+        <v>0.4277183130255295</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.003079916632316</v>
+        <v>4.113561716722927</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.311391756888497</v>
+        <v>1.86966253583887</v>
       </c>
       <c r="C12">
-        <v>0.563337926738626</v>
+        <v>0.2978241141850049</v>
       </c>
       <c r="D12">
-        <v>0.2912510678124249</v>
+        <v>0.5212847354580106</v>
       </c>
       <c r="E12">
-        <v>0.05394335700225561</v>
+        <v>0.1760375054613403</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5778942755533052</v>
+        <v>1.005268560685053</v>
       </c>
       <c r="H12">
-        <v>0.403369943756374</v>
+        <v>1.021722907794171</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06289044690230838</v>
+        <v>0.09011209284922472</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3462353560553311</v>
+        <v>0.3905924970174937</v>
       </c>
       <c r="M12">
-        <v>0.7804961744393921</v>
+        <v>0.4331393135741308</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.018780905738055</v>
+        <v>4.107468572696945</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.288130340864086</v>
+        <v>1.862795001706672</v>
       </c>
       <c r="C13">
-        <v>0.5611733260915912</v>
+        <v>0.2971110856023813</v>
       </c>
       <c r="D13">
-        <v>0.2904852624699714</v>
+        <v>0.5212665570465589</v>
       </c>
       <c r="E13">
-        <v>0.05404425436670746</v>
+        <v>0.176118023657553</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5764911256536607</v>
+        <v>1.00550896628863</v>
       </c>
       <c r="H13">
-        <v>0.4031649600705833</v>
+        <v>1.022106614934444</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06279902321272601</v>
+        <v>0.09008515559493091</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.344726587200995</v>
+        <v>0.3902580761656367</v>
       </c>
       <c r="M13">
-        <v>0.7763578177010828</v>
+        <v>0.4319713675902221</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.015350584793481</v>
+        <v>4.108763850498804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.212323290861775</v>
+        <v>1.840400782428844</v>
       </c>
       <c r="C14">
-        <v>0.5541185806266355</v>
+        <v>0.2947853135417233</v>
       </c>
       <c r="D14">
-        <v>0.2880012802721552</v>
+        <v>0.5212130157068344</v>
       </c>
       <c r="E14">
-        <v>0.05437598423837908</v>
+        <v>0.176382167651802</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5719725519435457</v>
+        <v>1.006311048249444</v>
       </c>
       <c r="H14">
-        <v>0.4025274118107518</v>
+        <v>1.023370738449941</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0625013451690819</v>
+        <v>0.08999747430492278</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3398146804711644</v>
+        <v>0.3891704155676763</v>
       </c>
       <c r="M14">
-        <v>0.7628734426078196</v>
+        <v>0.4281641048421463</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.004349762408367</v>
+        <v>4.113052774715442</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.165929455400146</v>
+        <v>1.8266854772491</v>
       </c>
       <c r="C15">
-        <v>0.5498007186757832</v>
+        <v>0.2933603838707199</v>
       </c>
       <c r="D15">
-        <v>0.2864900238967749</v>
+        <v>0.5211846339626192</v>
       </c>
       <c r="E15">
-        <v>0.05458122865488324</v>
+        <v>0.1765451598969943</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.5692484134417271</v>
+        <v>1.006816226189002</v>
       </c>
       <c r="H15">
-        <v>0.402160455980848</v>
+        <v>1.024154864349768</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06231936991229148</v>
+        <v>0.08994389558374039</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.33681245126796</v>
+        <v>0.3885064677339614</v>
       </c>
       <c r="M15">
-        <v>0.7546226907712779</v>
+        <v>0.4258333300023693</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.997753017508586</v>
+        <v>4.115729606299169</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.900643452554675</v>
+        <v>1.748117521292386</v>
       </c>
       <c r="C16">
-        <v>0.5251054712431653</v>
+        <v>0.2851898381233013</v>
       </c>
       <c r="D16">
-        <v>0.2779827344471357</v>
+        <v>0.5210896958964497</v>
       </c>
       <c r="E16">
-        <v>0.05578840806631291</v>
+        <v>0.177497551127126</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5542861578143743</v>
+        <v>1.009923789699272</v>
       </c>
       <c r="H16">
-        <v>0.4004097985259705</v>
+        <v>1.028798798056812</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06128193919665748</v>
+        <v>0.08963884160202795</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3197032496977528</v>
+        <v>0.3847366277315984</v>
       </c>
       <c r="M16">
-        <v>0.7074689368431208</v>
+        <v>0.4124965096509428</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.962058930172077</v>
+        <v>4.13183155625407</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.738375611440233</v>
+        <v>1.699945856048089</v>
       </c>
       <c r="C17">
-        <v>0.5099959729163004</v>
+        <v>0.2801733244908746</v>
       </c>
       <c r="D17">
-        <v>0.2728961064825626</v>
+        <v>0.5210919282051378</v>
       </c>
       <c r="E17">
-        <v>0.05655619688838875</v>
+        <v>0.1780981966869035</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5456651033604061</v>
+        <v>1.012019723733616</v>
       </c>
       <c r="H17">
-        <v>0.3996406954761795</v>
+        <v>1.031781935904377</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06065017719381061</v>
+        <v>0.08945348531855046</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3092886101048151</v>
+        <v>0.3824552683750255</v>
       </c>
       <c r="M17">
-        <v>0.6786482449154647</v>
+        <v>0.4043328227409759</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.941979512539888</v>
+        <v>4.142389305483249</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.64520336545047</v>
+        <v>1.672249364570462</v>
       </c>
       <c r="C18">
-        <v>0.5013189480484073</v>
+        <v>0.2772865053229339</v>
       </c>
       <c r="D18">
-        <v>0.2700173779166875</v>
+        <v>0.5211154591499252</v>
       </c>
       <c r="E18">
-        <v>0.0570076413185614</v>
+        <v>0.1784496979521686</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5409033866202861</v>
+        <v>1.013294844426525</v>
       </c>
       <c r="H18">
-        <v>0.3993067342376548</v>
+        <v>1.033547091863184</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06028846368351282</v>
+        <v>0.0893475346735606</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3033268030727783</v>
+        <v>0.3811546408599042</v>
       </c>
       <c r="M18">
-        <v>0.6621076066026319</v>
+        <v>0.3996440102005892</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.931073583557207</v>
+        <v>4.148711512561817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.61368291143333</v>
+        <v>1.662873679060453</v>
       </c>
       <c r="C19">
-        <v>0.498383272410706</v>
+        <v>0.2763088351612168</v>
       </c>
       <c r="D19">
-        <v>0.2690506026943211</v>
+        <v>0.5211272494528174</v>
       </c>
       <c r="E19">
-        <v>0.057162165488851</v>
+        <v>0.178569745621413</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.5393242182438769</v>
+        <v>1.013738525468952</v>
       </c>
       <c r="H19">
-        <v>0.3992119444441045</v>
+        <v>1.034153216795033</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06016627352786585</v>
+        <v>0.0893117757336519</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3013129838999618</v>
+        <v>0.3807162584294161</v>
       </c>
       <c r="M19">
-        <v>0.6565131898949943</v>
+        <v>0.3980576234176922</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.927489208466483</v>
+        <v>4.150894972024275</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.755632413264493</v>
+        <v>1.705072730301481</v>
       </c>
       <c r="C20">
-        <v>0.511602974456224</v>
+        <v>0.2807074929462487</v>
       </c>
       <c r="D20">
-        <v>0.273432689237282</v>
+        <v>0.5210893886143566</v>
       </c>
       <c r="E20">
-        <v>0.05647344301287571</v>
+        <v>0.1780336333955468</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5465622732660904</v>
+        <v>1.011789403765121</v>
       </c>
       <c r="H20">
-        <v>0.3997112679018073</v>
+        <v>1.031459269974874</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06071725637056602</v>
+        <v>0.08947314848706611</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.310394292857012</v>
+        <v>0.3826969285295263</v>
       </c>
       <c r="M20">
-        <v>0.6817124394843859</v>
+        <v>0.4052011675148819</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.944049881952793</v>
+        <v>4.141239572365521</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.23458119617203</v>
+        <v>1.846978135337963</v>
       </c>
       <c r="C21">
-        <v>0.5561900199870706</v>
+        <v>0.2954685177396073</v>
       </c>
       <c r="D21">
-        <v>0.28872873915806</v>
+        <v>0.5212278223767299</v>
       </c>
       <c r="E21">
-        <v>0.05427811883773437</v>
+        <v>0.1763043328499441</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5732906281866548</v>
+        <v>1.006072564500229</v>
       </c>
       <c r="H21">
-        <v>0.4027097434443192</v>
+        <v>1.022997389571628</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06258870482476198</v>
+        <v>0.09002320165559397</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3412560724944598</v>
+        <v>0.3894894138301055</v>
       </c>
       <c r="M21">
-        <v>0.7668322754483654</v>
+        <v>0.4292821232768063</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.007551318247835</v>
+        <v>4.111782646885871</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.54935831972341</v>
+        <v>1.939803646004236</v>
       </c>
       <c r="C22">
-        <v>0.5854778529119073</v>
+        <v>0.3051012506558948</v>
       </c>
       <c r="D22">
-        <v>0.2991800210841404</v>
+        <v>0.5215159134337739</v>
       </c>
       <c r="E22">
-        <v>0.05293464499980249</v>
+        <v>0.1752276963880366</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5926892664807326</v>
+        <v>1.002957329886669</v>
       </c>
       <c r="H22">
-        <v>0.4057140283848923</v>
+        <v>1.017906309863505</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06382781415190308</v>
+        <v>0.0903884641066206</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3617109720067759</v>
+        <v>0.3940306622194782</v>
       </c>
       <c r="M22">
-        <v>0.8228496706303616</v>
+        <v>0.4450781409718374</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.055322069397619</v>
+        <v>4.094756819736091</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.381178252826601</v>
+        <v>1.890253990409633</v>
       </c>
       <c r="C23">
-        <v>0.5698315094503812</v>
+        <v>0.2999614745662029</v>
       </c>
       <c r="D23">
-        <v>0.2935585647689294</v>
+        <v>0.5213440955903224</v>
       </c>
       <c r="E23">
-        <v>0.05364314012801952</v>
+        <v>0.1757974213739537</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5821502850667457</v>
+        <v>1.004563099597391</v>
       </c>
       <c r="H23">
-        <v>0.4040109878131943</v>
+        <v>1.020583326762036</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06316495029260238</v>
+        <v>0.09019299433256123</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3507661181174342</v>
+        <v>0.3915976252497018</v>
       </c>
       <c r="M23">
-        <v>0.79291351556693</v>
+        <v>0.4366423315770334</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.029224910439012</v>
+        <v>4.103640016624752</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.747830250138463</v>
+        <v>1.70275487642175</v>
       </c>
       <c r="C24">
-        <v>0.5108764193632283</v>
+        <v>0.280466003962772</v>
       </c>
       <c r="D24">
-        <v>0.2731899584019146</v>
+        <v>0.5210904674593877</v>
       </c>
       <c r="E24">
-        <v>0.05651082483178271</v>
+        <v>0.1780628032016018</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5461560583943168</v>
+        <v>1.011893312953148</v>
       </c>
       <c r="H24">
-        <v>0.3996790259253089</v>
+        <v>1.031604991147958</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0606869252318667</v>
+        <v>0.08946425685737935</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3098943339540341</v>
+        <v>0.3825876398369559</v>
       </c>
       <c r="M24">
-        <v>0.680327028221555</v>
+        <v>0.4048085744911916</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.943111886569767</v>
+        <v>4.141758580467865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.070611577572038</v>
+        <v>1.500917606070914</v>
       </c>
       <c r="C25">
-        <v>0.4477890119480037</v>
+        <v>0.259382267025984</v>
       </c>
       <c r="D25">
-        <v>0.2529964959697679</v>
+        <v>0.521667709386449</v>
       </c>
       <c r="E25">
-        <v>0.05997811807613473</v>
+        <v>0.1807368274708914</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5147698489438426</v>
+        <v>1.022460071671659</v>
       </c>
       <c r="H25">
-        <v>0.3991115754322578</v>
+        <v>1.045379826591841</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05807681580255419</v>
+        <v>0.08870355048572165</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.266878122695573</v>
+        <v>0.3733109808283501</v>
       </c>
       <c r="M25">
-        <v>0.5602390049060304</v>
+        <v>0.3707289645535141</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.874547800316009</v>
+        <v>4.192419313442485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.352688459262481</v>
+        <v>2.575385753247758</v>
       </c>
       <c r="C2">
-        <v>0.2438158961542172</v>
+        <v>0.4016337237153209</v>
       </c>
       <c r="D2">
-        <v>0.5228266803324146</v>
+        <v>0.2394766442296259</v>
       </c>
       <c r="E2">
-        <v>0.1829047581761003</v>
+        <v>0.06283487327641346</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.032520994063276</v>
+        <v>0.4971953952190376</v>
       </c>
       <c r="H2">
-        <v>1.057146006784222</v>
+        <v>0.4018399193419668</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08816575100385293</v>
+        <v>0.05620275909263128</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3668636860179362</v>
+        <v>0.2359649524939016</v>
       </c>
       <c r="M2">
-        <v>0.3458638963896732</v>
+        <v>0.472656965727495</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.237916805190395</v>
+        <v>1.842347024736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.252488878539054</v>
+        <v>2.241127146701217</v>
       </c>
       <c r="C3">
-        <v>0.2332425560761209</v>
+        <v>0.3704768501050495</v>
       </c>
       <c r="D3">
-        <v>0.524071164148836</v>
+        <v>0.231073153934986</v>
       </c>
       <c r="E3">
-        <v>0.184498590239718</v>
+        <v>0.06495219269169006</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.040758594272347</v>
+        <v>0.4883452061078373</v>
       </c>
       <c r="H3">
-        <v>1.06613384883002</v>
+        <v>0.4054767420584113</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08781546449406008</v>
+        <v>0.05495972816668271</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3627348923325329</v>
+        <v>0.215415842795295</v>
       </c>
       <c r="M3">
-        <v>0.329157898387308</v>
+        <v>0.4136781485820649</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.273857945568153</v>
+        <v>1.830730290186011</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.191100278037538</v>
+        <v>2.036334867276366</v>
       </c>
       <c r="C4">
-        <v>0.2267397842876591</v>
+        <v>0.3513890768680596</v>
       </c>
       <c r="D4">
-        <v>0.5250621559068662</v>
+        <v>0.2262626670569574</v>
       </c>
       <c r="E4">
-        <v>0.1855388112822123</v>
+        <v>0.06633908522905063</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.046515457162741</v>
+        <v>0.4843004804761577</v>
       </c>
       <c r="H4">
-        <v>1.072152772717168</v>
+        <v>0.4085381341931722</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0876074842823229</v>
+        <v>0.05420904026378892</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3603191279266298</v>
+        <v>0.2029745450890843</v>
       </c>
       <c r="M4">
-        <v>0.3189734253100625</v>
+        <v>0.3776068770335499</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.298443277077595</v>
+        <v>1.828264983331991</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.166119396706051</v>
+        <v>1.952961861400468</v>
       </c>
       <c r="C5">
-        <v>0.2240873777530226</v>
+        <v>0.3436190497520073</v>
       </c>
       <c r="D5">
-        <v>0.5255231236420173</v>
+        <v>0.2243866967639576</v>
       </c>
       <c r="E5">
-        <v>0.1859782185124965</v>
+        <v>0.06692572603514702</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.049037034540767</v>
+        <v>0.4829847338587712</v>
       </c>
       <c r="H5">
-        <v>1.074731393870479</v>
+        <v>0.4099864631623618</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0875245328988612</v>
+        <v>0.05390617950625654</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3593648214612628</v>
+        <v>0.197945894570573</v>
       </c>
       <c r="M5">
-        <v>0.3148418501362329</v>
+        <v>0.3629374214864498</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.309094774248919</v>
+        <v>1.828382548193261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.16197353278119</v>
+        <v>1.939121917494447</v>
       </c>
       <c r="C6">
-        <v>0.2236468046298228</v>
+        <v>0.3423292848667785</v>
       </c>
       <c r="D6">
-        <v>0.5256031199210867</v>
+        <v>0.224080188579677</v>
       </c>
       <c r="E6">
-        <v>0.1860521189788464</v>
+        <v>0.0670244236072115</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.049466342612234</v>
+        <v>0.4827858612511875</v>
       </c>
       <c r="H6">
-        <v>1.075167174902106</v>
+        <v>0.4102388715277314</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0875108682566399</v>
+        <v>0.05385607114222424</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.359208183653692</v>
+        <v>0.1971133007864907</v>
       </c>
       <c r="M6">
-        <v>0.3141569424729056</v>
+        <v>0.3605032111702329</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.310901658634975</v>
+        <v>1.828468391277298</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.190763231264157</v>
+        <v>2.035210178112436</v>
       </c>
       <c r="C7">
-        <v>0.226704022736044</v>
+        <v>0.3512842565304766</v>
       </c>
       <c r="D7">
-        <v>0.525068141250685</v>
+        <v>0.226237030054051</v>
       </c>
       <c r="E7">
-        <v>0.1855446744630909</v>
+        <v>0.06634691041217877</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.046548753198515</v>
+        <v>0.4842814111826144</v>
       </c>
       <c r="H7">
-        <v>1.072187039242998</v>
+        <v>0.4085568635390473</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08760635825001373</v>
+        <v>0.05420494355441363</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3603061356184298</v>
+        <v>0.2029065636027667</v>
       </c>
       <c r="M7">
-        <v>0.3189176294013549</v>
+        <v>0.3774089260663942</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.298584365120817</v>
+        <v>1.828262091259958</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.318112737704212</v>
+        <v>2.46002244505155</v>
       </c>
       <c r="C8">
-        <v>0.2401725544815747</v>
+        <v>0.390880507169669</v>
       </c>
       <c r="D8">
-        <v>0.523208738660955</v>
+        <v>0.2365044688963707</v>
       </c>
       <c r="E8">
-        <v>0.1834415372423939</v>
+        <v>0.0635466730845673</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.035216164606965</v>
+        <v>0.4938450906713001</v>
       </c>
       <c r="H8">
-        <v>1.060141192430336</v>
+        <v>0.4029173275346096</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08804350957399976</v>
+        <v>0.05577149510754253</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.365415386700235</v>
+        <v>0.2288412614538515</v>
       </c>
       <c r="M8">
-        <v>0.3400886775295646</v>
+        <v>0.4522879742723305</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.249786701366844</v>
+        <v>1.837341067071776</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.568849586172973</v>
+        <v>3.298096467304333</v>
       </c>
       <c r="C9">
-        <v>0.2664912944557898</v>
+        <v>0.4689854444338835</v>
       </c>
       <c r="D9">
-        <v>0.5213594073881467</v>
+        <v>0.2595777299545716</v>
       </c>
       <c r="E9">
-        <v>0.1798052137390833</v>
+        <v>0.05876181479001552</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.01854590073188</v>
+        <v>0.5244275340520375</v>
       </c>
       <c r="H9">
-        <v>1.040487615229083</v>
+        <v>0.3987895048048671</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08895636567446985</v>
+        <v>0.05894822332385985</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3763765405256976</v>
+        <v>0.281239995656378</v>
       </c>
       <c r="M9">
-        <v>0.3821737939136085</v>
+        <v>0.6005399631317943</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.17408018923814</v>
+        <v>1.894635766694137</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.753615635340793</v>
+        <v>3.919182099396153</v>
       </c>
       <c r="C10">
-        <v>0.285762055144346</v>
+        <v>0.5268314951454727</v>
       </c>
       <c r="D10">
-        <v>0.5210924540385378</v>
+        <v>0.2785696370145558</v>
       </c>
       <c r="E10">
-        <v>0.177429829473045</v>
+        <v>0.05570214268863705</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.009694063873212</v>
+        <v>0.5552971389428336</v>
       </c>
       <c r="H10">
-        <v>1.028465085958928</v>
+        <v>0.4005125078854235</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08966008125729985</v>
+        <v>0.06135425649059911</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3849985087501011</v>
+        <v>0.3208955877420294</v>
       </c>
       <c r="M10">
-        <v>0.4134289469066061</v>
+        <v>0.7107627004850272</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.130660683796833</v>
+        <v>1.964439064694915</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.837777888375683</v>
+        <v>4.203449018289859</v>
       </c>
       <c r="C11">
-        <v>0.2945128426402732</v>
+        <v>0.5532926757297787</v>
       </c>
       <c r="D11">
-        <v>0.5212073263998604</v>
+        <v>0.2877116769857651</v>
       </c>
       <c r="E11">
-        <v>0.1764132657848041</v>
+        <v>0.05441511199454485</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.006406830602089</v>
+        <v>0.5714490428450034</v>
       </c>
       <c r="H11">
-        <v>1.02352010522624</v>
+        <v>0.4024558486399172</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08998722077528143</v>
+        <v>0.06246652462715474</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3890433133595934</v>
+        <v>0.3392401824747964</v>
       </c>
       <c r="M11">
-        <v>0.4277183130255295</v>
+        <v>0.7612951293774302</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.113561716722927</v>
+        <v>2.003079916632316</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.86966253583887</v>
+        <v>4.311391756888383</v>
       </c>
       <c r="C12">
-        <v>0.2978241141850049</v>
+        <v>0.5633379267382566</v>
       </c>
       <c r="D12">
-        <v>0.5212847354580106</v>
+        <v>0.2912510678124107</v>
       </c>
       <c r="E12">
-        <v>0.1760375054613403</v>
+        <v>0.05394335700223962</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.005268560685053</v>
+        <v>0.5778942755533194</v>
       </c>
       <c r="H12">
-        <v>1.021722907794171</v>
+        <v>0.4033699437563598</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09011209284922472</v>
+        <v>0.06289044690236167</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3905924970174937</v>
+        <v>0.3462353560552742</v>
       </c>
       <c r="M12">
-        <v>0.4331393135741308</v>
+        <v>0.7804961744393779</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.107468572696945</v>
+        <v>2.018780905738026</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.862795001706672</v>
+        <v>4.288130340864086</v>
       </c>
       <c r="C13">
-        <v>0.2971110856023813</v>
+        <v>0.5611733260912786</v>
       </c>
       <c r="D13">
-        <v>0.5212665570465589</v>
+        <v>0.2904852624698435</v>
       </c>
       <c r="E13">
-        <v>0.176118023657553</v>
+        <v>0.05404425436667637</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.00550896628863</v>
+        <v>0.5764911256536749</v>
       </c>
       <c r="H13">
-        <v>1.022106614934444</v>
+        <v>0.4031649600704696</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09008515559493091</v>
+        <v>0.06279902321255193</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3902580761656367</v>
+        <v>0.3447265872009808</v>
       </c>
       <c r="M13">
-        <v>0.4319713675902221</v>
+        <v>0.7763578177010686</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.108763850498804</v>
+        <v>2.015350584793481</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.840400782428844</v>
+        <v>4.212323290861832</v>
       </c>
       <c r="C14">
-        <v>0.2947853135417233</v>
+        <v>0.5541185806269766</v>
       </c>
       <c r="D14">
-        <v>0.5212130157068344</v>
+        <v>0.28800128027234</v>
       </c>
       <c r="E14">
-        <v>0.176382167651802</v>
+        <v>0.05437598423839685</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.006311048249444</v>
+        <v>0.5719725519435883</v>
       </c>
       <c r="H14">
-        <v>1.023370738449941</v>
+        <v>0.4025274118107376</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08999747430492278</v>
+        <v>0.06250134516915296</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3891704155676763</v>
+        <v>0.3398146804711644</v>
       </c>
       <c r="M14">
-        <v>0.4281641048421463</v>
+        <v>0.762873442607841</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.113052774715442</v>
+        <v>2.004349762408339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.8266854772491</v>
+        <v>4.165929455400089</v>
       </c>
       <c r="C15">
-        <v>0.2933603838707199</v>
+        <v>0.5498007186755558</v>
       </c>
       <c r="D15">
-        <v>0.5211846339626192</v>
+        <v>0.2864900238966754</v>
       </c>
       <c r="E15">
-        <v>0.1765451598969943</v>
+        <v>0.05458122865489656</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.006816226189002</v>
+        <v>0.5692484134417271</v>
       </c>
       <c r="H15">
-        <v>1.024154864349768</v>
+        <v>0.4021604559809617</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08994389558374039</v>
+        <v>0.06231936991228437</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3885064677339614</v>
+        <v>0.3368124512679884</v>
       </c>
       <c r="M15">
-        <v>0.4258333300023693</v>
+        <v>0.7546226907712992</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.115729606299169</v>
+        <v>1.997753017508614</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.748117521292386</v>
+        <v>3.900643452554675</v>
       </c>
       <c r="C16">
-        <v>0.2851898381233013</v>
+        <v>0.5251054712433358</v>
       </c>
       <c r="D16">
-        <v>0.5210896958964497</v>
+        <v>0.2779827344472494</v>
       </c>
       <c r="E16">
-        <v>0.177497551127126</v>
+        <v>0.05578840806631291</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.009923789699272</v>
+        <v>0.5542861578143743</v>
       </c>
       <c r="H16">
-        <v>1.028798798056812</v>
+        <v>0.4004097985259705</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08963884160202795</v>
+        <v>0.06128193919671077</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3847366277315984</v>
+        <v>0.3197032496978096</v>
       </c>
       <c r="M16">
-        <v>0.4124965096509428</v>
+        <v>0.7074689368431279</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.13183155625407</v>
+        <v>1.96205893017202</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.699945856048089</v>
+        <v>3.738375611440006</v>
       </c>
       <c r="C17">
-        <v>0.2801733244908746</v>
+        <v>0.5099959729166414</v>
       </c>
       <c r="D17">
-        <v>0.5210919282051378</v>
+        <v>0.2728961064827473</v>
       </c>
       <c r="E17">
-        <v>0.1780981966869035</v>
+        <v>0.05655619688839142</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.012019723733616</v>
+        <v>0.5456651033604061</v>
       </c>
       <c r="H17">
-        <v>1.031781935904377</v>
+        <v>0.3996406954761653</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08945348531855046</v>
+        <v>0.06065017719384258</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3824552683750255</v>
+        <v>0.3092886101047867</v>
       </c>
       <c r="M17">
-        <v>0.4043328227409759</v>
+        <v>0.6786482449154718</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.142389305483249</v>
+        <v>1.941979512539802</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.672249364570462</v>
+        <v>3.645203365450584</v>
       </c>
       <c r="C18">
-        <v>0.2772865053229339</v>
+        <v>0.5013189480486346</v>
       </c>
       <c r="D18">
-        <v>0.5211154591499252</v>
+        <v>0.270017377916929</v>
       </c>
       <c r="E18">
-        <v>0.1784496979521686</v>
+        <v>0.05700764131854452</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.013294844426525</v>
+        <v>0.540903386620343</v>
       </c>
       <c r="H18">
-        <v>1.033547091863184</v>
+        <v>0.3993067342376548</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0893475346735606</v>
+        <v>0.06028846368351282</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3811546408599042</v>
+        <v>0.3033268030728777</v>
       </c>
       <c r="M18">
-        <v>0.3996440102005892</v>
+        <v>0.6621076066026248</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.148711512561817</v>
+        <v>1.931073583557122</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.662873679060453</v>
+        <v>3.61368291143333</v>
       </c>
       <c r="C19">
-        <v>0.2763088351612168</v>
+        <v>0.4983832724106776</v>
       </c>
       <c r="D19">
-        <v>0.5211272494528174</v>
+        <v>0.2690506026941222</v>
       </c>
       <c r="E19">
-        <v>0.178569745621413</v>
+        <v>0.05716216548884923</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.013738525468952</v>
+        <v>0.5393242182438485</v>
       </c>
       <c r="H19">
-        <v>1.034153216795033</v>
+        <v>0.3992119444440902</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0893117757336519</v>
+        <v>0.06016627352784099</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3807162584294161</v>
+        <v>0.3013129838999902</v>
       </c>
       <c r="M19">
-        <v>0.3980576234176922</v>
+        <v>0.6565131898950085</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.150894972024275</v>
+        <v>1.927489208466483</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.705072730301481</v>
+        <v>3.755632413264493</v>
       </c>
       <c r="C20">
-        <v>0.2807074929462487</v>
+        <v>0.511602974455684</v>
       </c>
       <c r="D20">
-        <v>0.5210893886143566</v>
+        <v>0.2734326892374384</v>
       </c>
       <c r="E20">
-        <v>0.1780336333955468</v>
+        <v>0.05647344301289348</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.011789403765121</v>
+        <v>0.5465622732660762</v>
       </c>
       <c r="H20">
-        <v>1.031459269974874</v>
+        <v>0.3997112679017931</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08947314848706611</v>
+        <v>0.06071725637061576</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3826969285295263</v>
+        <v>0.3103942928569978</v>
       </c>
       <c r="M20">
-        <v>0.4052011675148819</v>
+        <v>0.6817124394843717</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.141239572365521</v>
+        <v>1.944049881952793</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.846978135337963</v>
+        <v>4.234581196172087</v>
       </c>
       <c r="C21">
-        <v>0.2954685177396073</v>
+        <v>0.5561900199870706</v>
       </c>
       <c r="D21">
-        <v>0.5212278223767299</v>
+        <v>0.2887287391578752</v>
       </c>
       <c r="E21">
-        <v>0.1763043328499441</v>
+        <v>0.05427811883774769</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.006072564500229</v>
+        <v>0.5732906281866548</v>
       </c>
       <c r="H21">
-        <v>1.022997389571628</v>
+        <v>0.4027097434442055</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09002320165559397</v>
+        <v>0.06258870482481171</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3894894138301055</v>
+        <v>0.3412560724944456</v>
       </c>
       <c r="M21">
-        <v>0.4292821232768063</v>
+        <v>0.766832275448337</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.111782646885871</v>
+        <v>2.007551318247863</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.939803646004236</v>
+        <v>4.54935831972341</v>
       </c>
       <c r="C22">
-        <v>0.3051012506558948</v>
+        <v>0.5854778529118221</v>
       </c>
       <c r="D22">
-        <v>0.5215159134337739</v>
+        <v>0.299180021084112</v>
       </c>
       <c r="E22">
-        <v>0.1752276963880366</v>
+        <v>0.05293464499980605</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.002957329886669</v>
+        <v>0.592689266480761</v>
       </c>
       <c r="H22">
-        <v>1.017906309863505</v>
+        <v>0.4057140283850202</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0903884641066206</v>
+        <v>0.06382781415186045</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3940306622194782</v>
+        <v>0.3617109720068186</v>
       </c>
       <c r="M22">
-        <v>0.4450781409718374</v>
+        <v>0.8228496706303829</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.094756819736091</v>
+        <v>2.055322069397562</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.890253990409633</v>
+        <v>4.381178252826601</v>
       </c>
       <c r="C23">
-        <v>0.2999614745662029</v>
+        <v>0.5698315094505233</v>
       </c>
       <c r="D23">
-        <v>0.5213440955903224</v>
+        <v>0.2935585647688157</v>
       </c>
       <c r="E23">
-        <v>0.1757974213739537</v>
+        <v>0.05364314012802218</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.004563099597391</v>
+        <v>0.5821502850667173</v>
       </c>
       <c r="H23">
-        <v>1.020583326762036</v>
+        <v>0.4040109878131943</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09019299433256123</v>
+        <v>0.06316495029273383</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3915976252497018</v>
+        <v>0.3507661181173489</v>
       </c>
       <c r="M23">
-        <v>0.4366423315770334</v>
+        <v>0.7929135155669513</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.103640016624752</v>
+        <v>2.029224910439041</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.70275487642175</v>
+        <v>3.747830250138634</v>
       </c>
       <c r="C24">
-        <v>0.280466003962772</v>
+        <v>0.5108764193632567</v>
       </c>
       <c r="D24">
-        <v>0.5210904674593877</v>
+        <v>0.273189958401872</v>
       </c>
       <c r="E24">
-        <v>0.1780628032016018</v>
+        <v>0.05651082483178183</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.011893312953148</v>
+        <v>0.546156058394331</v>
       </c>
       <c r="H24">
-        <v>1.031604991147958</v>
+        <v>0.3996790259253089</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08946425685737935</v>
+        <v>0.06068692523183472</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3825876398369559</v>
+        <v>0.309894333953892</v>
       </c>
       <c r="M24">
-        <v>0.4048085744911916</v>
+        <v>0.680327028221555</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.141758580467865</v>
+        <v>1.943111886569767</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.500917606070914</v>
+        <v>3.070611577572038</v>
       </c>
       <c r="C25">
-        <v>0.259382267025984</v>
+        <v>0.4477890119478616</v>
       </c>
       <c r="D25">
-        <v>0.521667709386449</v>
+        <v>0.2529964959698532</v>
       </c>
       <c r="E25">
-        <v>0.1807368274708914</v>
+        <v>0.05997811807616227</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.022460071671659</v>
+        <v>0.5147698489438284</v>
       </c>
       <c r="H25">
-        <v>1.045379826591841</v>
+        <v>0.3991115754323715</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08870355048572165</v>
+        <v>0.05807681580258617</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3733109808283501</v>
+        <v>0.2668781226955588</v>
       </c>
       <c r="M25">
-        <v>0.3707289645535141</v>
+        <v>0.5602390049060304</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.192419313442485</v>
+        <v>1.874547800316094</v>
       </c>
     </row>
   </sheetData>
